--- a/Inversiones.xlsx
+++ b/Inversiones.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
     <sheet name="Operacion 2" sheetId="2" r:id="rId2"/>
     <sheet name="Operacion 3" sheetId="4" r:id="rId3"/>
     <sheet name="Historial" sheetId="3" r:id="rId4"/>
+    <sheet name="Fondo" sheetId="6" r:id="rId5"/>
+    <sheet name="Criterios" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>% =</t>
   </si>
@@ -301,19 +303,47 @@
   <si>
     <t>Dividendos de PHI.AS</t>
   </si>
+  <si>
+    <t>Financieros</t>
+  </si>
+  <si>
+    <t>Accionistas</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Dreamed Holidays</t>
+  </si>
+  <si>
+    <t>Cartama Finanazas</t>
+  </si>
+  <si>
+    <t>Criterios de Compra</t>
+  </si>
+  <si>
+    <t>Reparto de Beneficios Netos</t>
+  </si>
+  <si>
+    <t>Halla bajado en un año entre un 30% - 50%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;#,##0.00;[Red]\-&quot;€&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00;[Red]\-&quot;€&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +411,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -694,21 +732,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -726,12 +764,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -743,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,11 +825,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -821,6 +859,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +879,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,6 +954,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -949,6 +1006,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,17 +1205,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1158,7 +1232,7 @@
       </c>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1243,7 +1317,7 @@
       </c>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1348,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1283,7 +1357,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1366,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1301,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1323,7 +1397,7 @@
       </c>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1333,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1342,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1357,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>186+91</f>
         <v>277</v>
@@ -1370,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>B5/B16 *B4</f>
         <v>19.920577617328519</v>
@@ -1383,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <f>(91/277)*6.6</f>
         <v>2.1682310469314077</v>
@@ -1397,18 +1471,18 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" s="33"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -1431,17 +1505,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1458,7 +1532,7 @@
       </c>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1497,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1618,7 @@
       </c>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1649,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1584,7 +1658,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1593,7 +1667,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1602,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1624,7 +1698,7 @@
       </c>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1634,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1643,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
@@ -1679,24 +1753,24 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>273/3</f>
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" s="33"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -1718,17 +1792,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1819,7 @@
       </c>
       <c r="I1" s="55"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1763,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1830,7 +1904,7 @@
       </c>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1935,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1944,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1953,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="17" t="s">
         <v>7</v>
@@ -1888,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +1971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1909,7 +1983,7 @@
       </c>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="D13" s="17" t="s">
         <v>36</v>
@@ -1919,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="D14" s="17" t="s">
         <v>27</v>
@@ -1928,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1943,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +2045,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -1979,24 +2053,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
   </sheetData>
@@ -2015,24 +2089,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
-    <col min="20" max="20" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H1" s="61" t="s">
         <v>49</v>
       </c>
@@ -2051,7 +2125,7 @@
       <c r="Q1" s="63"/>
       <c r="R1" s="63"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2233,7 @@
         <v>-6.54E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2185,7 +2259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2230,7 +2304,7 @@
         <v>4.2278358399185385E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2275,7 +2349,7 @@
         <v>0.10105569620253146</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2301,7 +2375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2327,7 +2401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2353,7 +2427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2379,7 +2453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2405,7 +2479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2432,7 +2506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2480,7 +2554,7 @@
         <v>0.2356</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -2525,7 +2599,7 @@
         <v>0.19146932203389827</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2570,7 +2644,7 @@
         <v>3.287938787878788</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2596,7 +2670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2622,7 +2696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -2657,7 +2731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -2695,7 +2769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2716,7 +2790,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H22" s="15">
         <f t="shared" ref="H22:O22" si="0">SUM(H3:H21)</f>
         <v>17571.839999999997</v>
@@ -2758,7 +2832,7 @@
         <v>3.7548916419551364</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
@@ -2771,7 +2845,7 @@
       <c r="S23" s="51"/>
       <c r="T23" s="51"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
@@ -2849,7 +2923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>MT.AS</v>
@@ -2927,7 +3001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
@@ -3005,7 +3079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D28" s="48"/>
       <c r="H28" s="48" t="s">
         <v>61</v>
@@ -3021,14 +3095,14 @@
       <c r="O28" s="48"/>
       <c r="R28" s="48"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="G29" s="48"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T30" s="33"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -3046,7 +3120,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>66</v>
       </c>
@@ -3065,7 +3139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3164,7 @@
         <v>0.26491228070175432</v>
       </c>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>67</v>
       </c>
@@ -3102,49 +3176,49 @@
       <c r="J34" s="9"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="R35" s="43"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="R36" s="44"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="R37" s="45"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="R38" s="50"/>
       <c r="S38" s="48"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="4:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="R39" s="45"/>
       <c r="S39" s="49"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="R40" s="45"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="R41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="R42" s="43"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="R43" s="44"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="R44" s="45"/>
     </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P67">
         <f>100000*0.0027</f>
         <v>270</v>
@@ -3159,4 +3233,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="65">
+        <f>718.89+5092.08</f>
+        <v>5810.97</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3/B$6</f>
+        <v>0.81489194317182656</v>
+      </c>
+      <c r="D3" s="65">
+        <f>D$6*C3</f>
+        <v>325.9567772687306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="65">
+        <f>1070</f>
+        <v>1070</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>0.15004971273192846</v>
+      </c>
+      <c r="D4" s="65">
+        <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
+        <v>60.019885092771389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="65">
+        <v>250</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5058344096244969E-2</v>
+      </c>
+      <c r="D5" s="65">
+        <f t="shared" si="1"/>
+        <v>14.023337638497987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="65">
+        <f>SUM(B3:B5)</f>
+        <v>7130.97</v>
+      </c>
+      <c r="C6" s="3">
+        <f>SUM(C3:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="65">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inversiones.xlsx
+++ b/Inversiones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -832,6 +832,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,8 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,15 +1222,15 @@
       <c r="B1" s="5">
         <v>5600</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1239,10 +1239,10 @@
       <c r="B2" s="4">
         <v>42234</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="61"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1311,11 +1311,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="56" t="str">
+      <c r="I5" s="58" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1522,15 +1522,15 @@
       <c r="B1" s="5">
         <v>600.6</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1539,10 +1539,10 @@
       <c r="B2" s="4">
         <v>42471</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="61"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1612,11 +1612,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="56" t="str">
+      <c r="I5" s="58" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,15 +1809,15 @@
       <c r="B1" s="5">
         <v>5100</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1826,10 +1826,10 @@
       <c r="B2" s="4">
         <v>43154</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="61"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1898,11 +1898,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="56" t="str">
+      <c r="I5" s="58" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,23 +2107,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3239,8 +3239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,16 +3252,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="55" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="56">
         <f>718.89+5092.08</f>
         <v>5810.97</v>
       </c>
@@ -3277,7 +3277,7 @@
         <f>B3/B$6</f>
         <v>0.81489194317182656</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="56">
         <f>D$6*C3</f>
         <v>325.9567772687306</v>
       </c>
@@ -3286,15 +3286,15 @@
       <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="56">
         <f>1070</f>
         <v>1070</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
         <v>0.15004971273192846</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
         <v>60.019885092771389</v>
       </c>
@@ -3303,14 +3303,14 @@
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="56">
         <v>250</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>3.5058344096244969E-2</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="56">
         <f t="shared" si="1"/>
         <v>14.023337638497987</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
         <v>7130.97</v>
       </c>
@@ -3327,7 +3327,7 @@
         <f>SUM(C3:C5)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="56">
         <v>400</v>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Inversiones.xlsx
+++ b/Inversiones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
   <si>
     <t>% =</t>
   </si>
@@ -328,7 +328,13 @@
     <t>Reparto de Beneficios Netos</t>
   </si>
   <si>
-    <t>Halla bajado en un año entre un 30% - 50%</t>
+    <t>Los analistas les den un potencial alto, entre un 30% - 50% de potencial</t>
+  </si>
+  <si>
+    <t>Haber bajado en un año entre un 30% - 50%</t>
+  </si>
+  <si>
+    <t>Volumen medio, alto &gt; 1 M / dia</t>
   </si>
 </sst>
 </file>
@@ -1788,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3123,7 @@
         <v>72</v>
       </c>
       <c r="U31">
-        <v>28.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3161,7 +3167,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.26491228070175432</v>
+        <v>0.24310344827586206</v>
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
@@ -3240,7 +3246,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,7 +3285,7 @@
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
-        <v>325.9567772687306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,7 +3302,7 @@
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
-        <v>60.019885092771389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3312,7 +3318,7 @@
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
-        <v>14.023337638497987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="56">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3339,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,7 +3363,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Inversiones.xlsx
+++ b/Inversiones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>% =</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>Volumen medio, alto &gt; 1 M / dia</t>
+  </si>
+  <si>
+    <t>Bajada especulativa: Muchas opciones de venta (&gt; 1%)</t>
+  </si>
+  <si>
+    <t>Deuda Baja: Todavia nose los niveles apropiados</t>
   </si>
 </sst>
 </file>
@@ -3345,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,6 +3382,16 @@
         <v>88</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
